--- a/data/outputs/management_altmetric/59.xlsx
+++ b/data/outputs/management_altmetric/59.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE26"/>
+  <dimension ref="A1:CF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1027,6 +1032,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1266,6 +1274,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1505,6 +1516,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1754,6 +1768,9 @@
       <c r="CE5" t="n">
         <v>2</v>
       </c>
+      <c r="CF5" t="n">
+        <v>4.85</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1999,6 +2016,9 @@
         <v>0</v>
       </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2220,6 +2240,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2471,6 +2494,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2718,6 +2744,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2967,6 +2996,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3212,6 +3244,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3453,6 +3488,9 @@
         <v>0</v>
       </c>
       <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3694,6 +3732,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3951,6 +3992,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>4.05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4196,6 +4240,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4447,6 +4494,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>3.85</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4702,6 +4752,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4945,6 +4998,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5194,6 +5250,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5435,6 +5494,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>5.304</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5682,6 +5744,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5929,6 +5994,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6178,6 +6246,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>34.75</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6417,6 +6488,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6660,6 +6734,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6907,6 +6984,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
